--- a/INTLINE/data/193/ABS/642701.xlsx
+++ b/INTLINE/data/193/ABS/642701.xlsx
@@ -12,17 +12,17 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2314865F">Data1!$B$1:$B$10,Data1!$B$11:$B$104</definedName>
-    <definedName name="A2314865F_Data">Data1!$B$11:$B$104</definedName>
-    <definedName name="A2314865F_Latest">Data1!$B$104</definedName>
-    <definedName name="A2314866J">Data1!$C$1:$C$10,Data1!$C$12:$C$104</definedName>
-    <definedName name="A2314866J_Data">Data1!$C$12:$C$104</definedName>
-    <definedName name="A2314866J_Latest">Data1!$C$104</definedName>
-    <definedName name="A2314867K">Data1!$D$1:$D$10,Data1!$D$15:$D$104</definedName>
-    <definedName name="A2314867K_Data">Data1!$D$15:$D$104</definedName>
-    <definedName name="A2314867K_Latest">Data1!$D$104</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$104</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$104</definedName>
+    <definedName name="A2314865F">Data1!$B$1:$B$10,Data1!$B$11:$B$105</definedName>
+    <definedName name="A2314865F_Data">Data1!$B$11:$B$105</definedName>
+    <definedName name="A2314865F_Latest">Data1!$B$105</definedName>
+    <definedName name="A2314866J">Data1!$C$1:$C$10,Data1!$C$12:$C$105</definedName>
+    <definedName name="A2314866J_Data">Data1!$C$12:$C$105</definedName>
+    <definedName name="A2314866J_Latest">Data1!$C$105</definedName>
+    <definedName name="A2314867K">Data1!$D$1:$D$10,Data1!$D$15:$D$105</definedName>
+    <definedName name="A2314867K_Data">Data1!$D$15:$D$105</definedName>
+    <definedName name="A2314867K_Latest">Data1!$D$105</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$105</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$105</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -955,10 +955,10 @@
         <v>36039</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>12</v>
@@ -987,10 +987,10 @@
         <v>36130</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>17</v>
@@ -1019,10 +1019,10 @@
         <v>36404</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
@@ -1060,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1174,13 +1174,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1188,13 +1188,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1">
         <v>94</v>
       </c>
-      <c r="C9" s="1">
-        <v>93</v>
-      </c>
       <c r="D9" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,6 +2510,20 @@
       </c>
       <c r="D104" s="8">
         <v>3.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B105" s="8">
+        <v>118.3</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="D105" s="8">
+        <v>4.9000000000000004</v>
       </c>
     </row>
   </sheetData>
